--- a/R/Supplementary_2.xlsx
+++ b/R/Supplementary_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siwat/Desktop/floreyPlacement/alzheimer-prediction-model/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA2E42-6CCF-A348-8CE9-4ED0F9FC9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F90D41-5BC6-334F-BD70-8303B33F47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
@@ -6790,7 +6790,7 @@
   <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
